--- a/grades_comp.xlsx
+++ b/grades_comp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="377">
   <si>
     <t>CharacterDesignName</t>
   </si>
@@ -1146,42 +1146,6 @@
   </si>
   <si>
     <t>AbilityScore_norm</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Alien</t>
-  </si>
-  <si>
-    <t>Elite</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>DamageToSameRoomCharacters</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>15</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1587,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1604,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>1.68</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1621,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1638,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1655,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1672,10 +1636,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1689,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1703,10 +1667,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-2147483648</v>
+        <v>-0.97</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1723,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>3.32</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1740,10 +1704,10 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1757,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>3.32</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1774,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>2.65</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1791,10 +1755,10 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1808,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1825,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1842,10 +1806,10 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1859,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>2.81</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1876,7 +1840,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>2.88</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1890,13 +1854,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-2147483648</v>
+        <v>-0.49</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1910,10 +1874,10 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1927,10 +1891,10 @@
         <v>-1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1944,10 +1908,10 @@
         <v>-1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>-0.13</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1961,7 +1925,7 @@
         <v>-1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1978,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>0.04</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1995,7 +1959,7 @@
         <v>-1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>-0.12</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2012,7 +1976,7 @@
         <v>-1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>-0.17</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2029,10 +1993,10 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2046,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2063,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2080,10 +2044,10 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2097,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2114,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2128,13 +2092,13 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>-2147483648</v>
+        <v>0.61</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2145,13 +2109,13 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>-2147483648</v>
+        <v>0.47</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2162,13 +2126,13 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>-2147483648</v>
+        <v>0.82</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2182,10 +2146,10 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2199,10 +2163,10 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2216,7 +2180,7 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -2233,7 +2197,7 @@
         <v>3</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>2.66</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -2250,7 +2214,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2267,7 +2231,7 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>3.29</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -2284,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>1.49</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2298,10 +2262,10 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>-2147483648</v>
+        <v>0.03</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2318,10 +2282,10 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2335,7 +2299,7 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2352,10 +2316,10 @@
         <v>3</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>2.66</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2369,10 +2333,10 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2389,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2403,7 +2367,7 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>1.68</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -2420,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2437,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2454,10 +2418,10 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2471,7 +2435,7 @@
         <v>-1</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>-0.74</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2488,7 +2452,7 @@
         <v>-1</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>-0.77</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2505,7 +2469,7 @@
         <v>-1</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2522,7 +2486,7 @@
         <v>-1</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>-0.74</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2539,10 +2503,10 @@
         <v>2</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2556,10 +2520,10 @@
         <v>-1</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>-0.72</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2573,10 +2537,10 @@
         <v>-1</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>-0.74</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2590,7 +2554,7 @@
         <v>-1</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2607,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -2624,10 +2588,10 @@
         <v>-1</v>
       </c>
       <c r="D64">
-        <v>-2147483648</v>
+        <v>-0.73</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2641,10 +2605,10 @@
         <v>-1</v>
       </c>
       <c r="D65">
-        <v>-2147483648</v>
+        <v>0.27</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2658,10 +2622,10 @@
         <v>-1</v>
       </c>
       <c r="D66">
-        <v>-2147483648</v>
+        <v>0.77</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2675,7 +2639,7 @@
         <v>-1</v>
       </c>
       <c r="D67">
-        <v>-2147483648</v>
+        <v>-0.08</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2692,7 +2656,7 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2709,10 +2673,10 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>2.68</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2726,10 +2690,10 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>1.77</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2743,7 +2707,7 @@
         <v>-1</v>
       </c>
       <c r="D71">
-        <v>-2147483648</v>
+        <v>-0.18</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2760,7 +2724,7 @@
         <v>-1</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2777,7 +2741,7 @@
         <v>-1</v>
       </c>
       <c r="D73">
-        <v>-2147483648</v>
+        <v>0.03</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2794,7 +2758,7 @@
         <v>-1</v>
       </c>
       <c r="D74">
-        <v>-2147483648</v>
+        <v>-0.06</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2811,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -2828,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>1.84</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -2845,10 +2809,10 @@
         <v>3</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>2.71</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2862,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2879,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>1.53</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -2896,7 +2860,7 @@
         <v>2</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -2913,10 +2877,10 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2930,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2947,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -2964,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -2981,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -2998,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3015,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3032,7 +2996,7 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>1.88</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -3049,7 +3013,7 @@
         <v>3</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -3066,10 +3030,10 @@
         <v>4</v>
       </c>
       <c r="D90">
+        <v>4.13</v>
+      </c>
+      <c r="E90">
         <v>4</v>
-      </c>
-      <c r="E90">
-        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3083,10 +3047,10 @@
         <v>3</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>3.04</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3100,7 +3064,7 @@
         <v>3</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>2.77</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -3117,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>3.26</v>
       </c>
       <c r="E93">
         <v>3</v>
@@ -3134,10 +3098,10 @@
         <v>4</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>3.98</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3151,10 +3115,10 @@
         <v>4</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>3.26</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3168,7 +3132,7 @@
         <v>4</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="E96">
         <v>3</v>
@@ -3185,10 +3149,10 @@
         <v>-1</v>
       </c>
       <c r="D97">
-        <v>-2147483648</v>
+        <v>-0.05</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3202,10 +3166,10 @@
         <v>-1</v>
       </c>
       <c r="D98">
-        <v>-2147483648</v>
+        <v>-0.05</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3219,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3236,10 +3200,10 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3253,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -3270,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3287,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3304,10 +3268,10 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3321,10 +3285,10 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3338,10 +3302,10 @@
         <v>2</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3355,10 +3319,10 @@
         <v>-1</v>
       </c>
       <c r="D107">
-        <v>-2147483648</v>
+        <v>0.54</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3372,10 +3336,10 @@
         <v>2</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>1.32</v>
       </c>
       <c r="E108">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3389,10 +3353,10 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="E109">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3406,10 +3370,10 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>1.49</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3423,7 +3387,7 @@
         <v>3</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="E111">
         <v>3</v>
@@ -3440,10 +3404,10 @@
         <v>3</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3457,7 +3421,7 @@
         <v>4</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>3.73</v>
       </c>
       <c r="E113">
         <v>4</v>
@@ -3474,10 +3438,10 @@
         <v>4</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>3.98</v>
       </c>
       <c r="E114">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3491,10 +3455,10 @@
         <v>4</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>3.48</v>
       </c>
       <c r="E115">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3508,7 +3472,7 @@
         <v>4</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="E116">
         <v>3</v>
@@ -3525,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>2.46</v>
       </c>
       <c r="E117">
         <v>2</v>
@@ -3542,7 +3506,7 @@
         <v>2</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -3559,7 +3523,7 @@
         <v>2</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -3576,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>-0.14</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -3593,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -3610,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>1.76</v>
       </c>
       <c r="E122">
         <v>2</v>
@@ -3627,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -3644,10 +3608,10 @@
         <v>-1</v>
       </c>
       <c r="D124">
-        <v>-2147483648</v>
+        <v>-0.21</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3661,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -3678,7 +3642,7 @@
         <v>4</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>4.05</v>
       </c>
       <c r="E126">
         <v>4</v>
@@ -3695,7 +3659,7 @@
         <v>3</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>2.81</v>
       </c>
       <c r="E127">
         <v>3</v>
@@ -3712,7 +3676,7 @@
         <v>2</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="E128">
         <v>2</v>
@@ -3729,10 +3693,10 @@
         <v>3</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="E129">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3746,7 +3710,7 @@
         <v>2</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>1.97</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -3763,10 +3727,10 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3780,10 +3744,10 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3797,10 +3761,10 @@
         <v>3</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="E133">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3814,10 +3778,10 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="E134">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3831,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -3848,10 +3812,10 @@
         <v>3</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>3.72</v>
       </c>
       <c r="E136">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3865,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3882,7 +3846,7 @@
         <v>2</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>2.18</v>
       </c>
       <c r="E138">
         <v>2</v>
@@ -3899,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="E139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3916,7 +3880,7 @@
         <v>4</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>3.59</v>
       </c>
       <c r="E140">
         <v>2</v>
@@ -3933,7 +3897,7 @@
         <v>2</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="E141">
         <v>2</v>
@@ -3950,7 +3914,7 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="E142">
         <v>3</v>
@@ -3967,10 +3931,10 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3984,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -4001,7 +3965,7 @@
         <v>4</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>3.57</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -4018,7 +3982,7 @@
         <v>2</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>2.46</v>
       </c>
       <c r="E146">
         <v>2</v>
@@ -4035,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E147">
         <v>2</v>
@@ -4052,7 +4016,7 @@
         <v>4</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="E148">
         <v>2</v>
@@ -4069,10 +4033,10 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4086,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>1.74</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -4103,7 +4067,7 @@
         <v>3</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="E151">
         <v>3</v>
@@ -4120,10 +4084,10 @@
         <v>2</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4137,7 +4101,7 @@
         <v>3</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="E153">
         <v>2</v>
@@ -4154,7 +4118,7 @@
         <v>3</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="E154">
         <v>3</v>
@@ -4171,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -4188,10 +4152,10 @@
         <v>3</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="E156">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4205,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -4222,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="E158">
         <v>2</v>
@@ -4239,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>2.57</v>
       </c>
       <c r="E159">
         <v>2</v>
@@ -4256,10 +4220,10 @@
         <v>3</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>2.68</v>
       </c>
       <c r="E160">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4273,10 +4237,10 @@
         <v>4</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>4.01</v>
       </c>
       <c r="E161">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4290,10 +4254,10 @@
         <v>3</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E162">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4307,10 +4271,10 @@
         <v>2</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4324,10 +4288,10 @@
         <v>2</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="E164">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4341,7 +4305,7 @@
         <v>4</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>3.61</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -4358,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>-0.37</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -4375,10 +4339,10 @@
         <v>2</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>1.76</v>
       </c>
       <c r="E167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4392,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -4409,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -4426,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -4443,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -4460,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -4477,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -4494,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -4511,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -4528,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -4545,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>-0.27</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -4562,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -4579,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -4596,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -4613,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -4630,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -4647,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4664,10 +4628,10 @@
         <v>3</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="E184">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4681,7 +4645,7 @@
         <v>2</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>2.08</v>
       </c>
       <c r="E185">
         <v>2</v>
@@ -4698,10 +4662,10 @@
         <v>0</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4715,7 +4679,7 @@
         <v>3</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>2.88</v>
       </c>
       <c r="E187">
         <v>3</v>
@@ -4732,7 +4696,7 @@
         <v>3</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>3.32</v>
       </c>
       <c r="E188">
         <v>3</v>
@@ -4749,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="D189">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="E189">
         <v>2</v>
@@ -4766,7 +4730,7 @@
         <v>3</v>
       </c>
       <c r="D190">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="E190">
         <v>2</v>
@@ -4783,10 +4747,10 @@
         <v>2</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4800,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="E192">
         <v>2</v>
@@ -4817,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -4834,7 +4798,7 @@
         <v>2</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>1.91</v>
       </c>
       <c r="E194">
         <v>2</v>
@@ -4851,7 +4815,7 @@
         <v>4</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="E195">
         <v>4</v>
@@ -4868,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -4885,10 +4849,10 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="E197">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4902,7 +4866,7 @@
         <v>-1</v>
       </c>
       <c r="D198">
-        <v>-2147483648</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -4919,7 +4883,7 @@
         <v>2</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E199">
         <v>2</v>
@@ -4936,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>-0.49</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -4953,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>-0.39</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -4970,7 +4934,7 @@
         <v>3</v>
       </c>
       <c r="D202">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="E202">
         <v>3</v>
@@ -4987,7 +4951,7 @@
         <v>3</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="E203">
         <v>3</v>
@@ -5004,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -5021,7 +4985,7 @@
         <v>3</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>2.31</v>
       </c>
       <c r="E205">
         <v>2</v>
@@ -5038,7 +5002,7 @@
         <v>2</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>1.74</v>
       </c>
       <c r="E206">
         <v>2</v>
@@ -5055,7 +5019,7 @@
         <v>2</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>2.05</v>
       </c>
       <c r="E207">
         <v>2</v>
@@ -5072,7 +5036,7 @@
         <v>2</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>2.51</v>
       </c>
       <c r="E208">
         <v>2</v>
@@ -5089,10 +5053,10 @@
         <v>2</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="E209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5106,7 +5070,7 @@
         <v>4</v>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>3.77</v>
       </c>
       <c r="E210">
         <v>2</v>
@@ -5123,10 +5087,10 @@
         <v>2</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5140,7 +5104,7 @@
         <v>3</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>2.96</v>
       </c>
       <c r="E212">
         <v>3</v>
@@ -5157,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>-0.29</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -5174,10 +5138,10 @@
         <v>3</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="E214">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5191,10 +5155,10 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="E215">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5208,10 +5172,10 @@
         <v>3</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="E216">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5225,7 +5189,7 @@
         <v>2</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>2.14</v>
       </c>
       <c r="E217">
         <v>2</v>
@@ -5242,7 +5206,7 @@
         <v>2</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="E218">
         <v>2</v>
@@ -5259,7 +5223,7 @@
         <v>2</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>1.76</v>
       </c>
       <c r="E219">
         <v>2</v>
@@ -5276,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="E220">
         <v>2</v>
@@ -5293,10 +5257,10 @@
         <v>2</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5310,10 +5274,10 @@
         <v>2</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="E222">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5327,7 +5291,7 @@
         <v>3</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>3.03</v>
       </c>
       <c r="E223">
         <v>3</v>
@@ -5344,7 +5308,7 @@
         <v>3</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>3.03</v>
       </c>
       <c r="E224">
         <v>3</v>
@@ -5361,7 +5325,7 @@
         <v>2</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="E225">
         <v>2</v>
@@ -5378,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -5395,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>-0.24</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -5412,10 +5376,10 @@
         <v>2</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="E228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5429,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -5446,10 +5410,10 @@
         <v>2</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5463,10 +5427,10 @@
         <v>-1</v>
       </c>
       <c r="D231">
-        <v>-2147483648</v>
+        <v>-0.05</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5480,10 +5444,10 @@
         <v>-1</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="E232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5497,10 +5461,10 @@
         <v>4</v>
       </c>
       <c r="D233">
-        <v>3</v>
+        <v>3.53</v>
       </c>
       <c r="E233">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5514,10 +5478,10 @@
         <v>2</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="E234">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5531,10 +5495,10 @@
         <v>2</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="E235">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5548,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -5565,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -5582,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -5599,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -5616,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -5633,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -5650,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="D242">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -5667,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>-0.29</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -5684,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -5701,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>-0.23</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -5718,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>-0.28</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -5735,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -5752,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="D248">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -5769,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -5786,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -5803,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -5820,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="D252">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -5837,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -5854,10 +5818,10 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="E254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5871,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>1.52</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -5888,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>1.49</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -5905,7 +5869,7 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>1.49</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -5922,7 +5886,7 @@
         <v>2</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>1.49</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -5939,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>1.77</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -5956,10 +5920,10 @@
         <v>0</v>
       </c>
       <c r="D260">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5973,7 +5937,7 @@
         <v>2</v>
       </c>
       <c r="D261">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="E261">
         <v>3</v>
@@ -5990,7 +5954,7 @@
         <v>3</v>
       </c>
       <c r="D262">
-        <v>2</v>
+        <v>2.56</v>
       </c>
       <c r="E262">
         <v>3</v>
@@ -6007,10 +5971,10 @@
         <v>2</v>
       </c>
       <c r="D263">
-        <v>2</v>
+        <v>2.62</v>
       </c>
       <c r="E263">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6024,10 +5988,10 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>1.61</v>
       </c>
       <c r="E264">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6041,10 +6005,10 @@
         <v>1</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="E265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6058,7 +6022,7 @@
         <v>2</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>1.91</v>
       </c>
       <c r="E266">
         <v>2</v>
@@ -6075,7 +6039,7 @@
         <v>4</v>
       </c>
       <c r="D267">
-        <v>4</v>
+        <v>4.53</v>
       </c>
       <c r="E267">
         <v>4</v>
@@ -6092,10 +6056,10 @@
         <v>2</v>
       </c>
       <c r="D268">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="E268">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6109,7 +6073,7 @@
         <v>2</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>2.08</v>
       </c>
       <c r="E269">
         <v>2</v>
@@ -6126,10 +6090,10 @@
         <v>2</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6143,10 +6107,10 @@
         <v>1</v>
       </c>
       <c r="D271">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="E271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6160,7 +6124,7 @@
         <v>3</v>
       </c>
       <c r="D272">
-        <v>2</v>
+        <v>2.41</v>
       </c>
       <c r="E272">
         <v>3</v>
@@ -6177,7 +6141,7 @@
         <v>3</v>
       </c>
       <c r="D273">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="E273">
         <v>3</v>
@@ -6194,10 +6158,10 @@
         <v>0</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>1.66</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6211,10 +6175,10 @@
         <v>2</v>
       </c>
       <c r="D275">
-        <v>2</v>
+        <v>2.69</v>
       </c>
       <c r="E275">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6228,7 +6192,7 @@
         <v>3</v>
       </c>
       <c r="D276">
-        <v>2</v>
+        <v>2.69</v>
       </c>
       <c r="E276">
         <v>3</v>
@@ -6245,10 +6209,10 @@
         <v>2</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="E277">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6262,10 +6226,10 @@
         <v>-1</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>-0.4</v>
       </c>
       <c r="E278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6279,7 +6243,7 @@
         <v>-1</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>-0.49</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -6296,7 +6260,7 @@
         <v>-1</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>-0.21</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -6313,7 +6277,7 @@
         <v>-1</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>-0.48</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -6330,7 +6294,7 @@
         <v>-1</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>-0.39</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -6347,10 +6311,10 @@
         <v>-1</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>-0.43</v>
       </c>
       <c r="E283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6364,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -6381,10 +6345,10 @@
         <v>-1</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>-0.09</v>
       </c>
       <c r="E285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6398,7 +6362,7 @@
         <v>-1</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>-0.12</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -6415,7 +6379,7 @@
         <v>-1</v>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>-0.12</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -6432,7 +6396,7 @@
         <v>-1</v>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>-0.12</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -6449,10 +6413,10 @@
         <v>2</v>
       </c>
       <c r="D289">
-        <v>2</v>
+        <v>2.47</v>
       </c>
       <c r="E289">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6466,10 +6430,10 @@
         <v>-1</v>
       </c>
       <c r="D290">
-        <v>1</v>
+        <v>-0.4</v>
       </c>
       <c r="E290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6483,7 +6447,7 @@
         <v>-1</v>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>-0.49</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -6500,7 +6464,7 @@
         <v>-1</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>-0.21</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -6517,7 +6481,7 @@
         <v>-1</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>-0.48</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -6534,10 +6498,10 @@
         <v>-1</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>-0.43</v>
       </c>
       <c r="E294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6551,10 +6515,10 @@
         <v>3</v>
       </c>
       <c r="D295">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="E295">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6568,7 +6532,7 @@
         <v>-1</v>
       </c>
       <c r="D296">
-        <v>1</v>
+        <v>-0.39</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -6585,10 +6549,10 @@
         <v>3</v>
       </c>
       <c r="D297">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="E297">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6602,7 +6566,7 @@
         <v>2</v>
       </c>
       <c r="D298">
-        <v>1</v>
+        <v>1.41</v>
       </c>
       <c r="E298">
         <v>2</v>
@@ -6619,7 +6583,7 @@
         <v>2</v>
       </c>
       <c r="D299">
-        <v>2</v>
+        <v>2.41</v>
       </c>
       <c r="E299">
         <v>3</v>
@@ -6636,7 +6600,7 @@
         <v>-1</v>
       </c>
       <c r="D300">
-        <v>1</v>
+        <v>-0.49</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -6653,10 +6617,10 @@
         <v>-1</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>-0.46</v>
       </c>
       <c r="E301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6670,7 +6634,7 @@
         <v>-1</v>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>-0.21</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -6687,7 +6651,7 @@
         <v>-1</v>
       </c>
       <c r="D303">
-        <v>1</v>
+        <v>-0.48</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -6704,10 +6668,10 @@
         <v>-1</v>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>-0.43</v>
       </c>
       <c r="E304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6721,7 +6685,7 @@
         <v>-1</v>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>-0.39</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -6738,10 +6702,10 @@
         <v>3</v>
       </c>
       <c r="D306">
-        <v>1</v>
+        <v>1.94</v>
       </c>
       <c r="E306">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6755,10 +6719,10 @@
         <v>-1</v>
       </c>
       <c r="D307">
-        <v>-2147483648</v>
+        <v>0.26</v>
       </c>
       <c r="E307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6772,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="D308">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -6789,10 +6753,10 @@
         <v>-1</v>
       </c>
       <c r="D309">
-        <v>1</v>
+        <v>-0.41</v>
       </c>
       <c r="E309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6806,7 +6770,7 @@
         <v>1</v>
       </c>
       <c r="D310">
-        <v>1</v>
+        <v>1.28</v>
       </c>
       <c r="E310">
         <v>1</v>
@@ -6823,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="D311">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="E311">
         <v>1</v>
@@ -6840,7 +6804,7 @@
         <v>-1</v>
       </c>
       <c r="D312">
-        <v>-2147483648</v>
+        <v>-0.6</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -6857,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="D313">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -6874,7 +6838,7 @@
         <v>3</v>
       </c>
       <c r="D314">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="E314">
         <v>3</v>
@@ -6891,7 +6855,7 @@
         <v>2</v>
       </c>
       <c r="D315">
-        <v>1</v>
+        <v>1.85</v>
       </c>
       <c r="E315">
         <v>2</v>
@@ -6908,10 +6872,10 @@
         <v>-1</v>
       </c>
       <c r="D316">
-        <v>2</v>
+        <v>2.71</v>
       </c>
       <c r="E316">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6925,7 +6889,7 @@
         <v>-1</v>
       </c>
       <c r="D317">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="E317">
         <v>2</v>
@@ -6942,10 +6906,10 @@
         <v>-1</v>
       </c>
       <c r="D318">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="E318">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6959,7 +6923,7 @@
         <v>-1</v>
       </c>
       <c r="D319">
-        <v>2</v>
+        <v>2.92</v>
       </c>
       <c r="E319">
         <v>3</v>
@@ -6976,7 +6940,7 @@
         <v>-1</v>
       </c>
       <c r="D320">
-        <v>2</v>
+        <v>2.46</v>
       </c>
       <c r="E320">
         <v>2</v>
@@ -6993,10 +6957,10 @@
         <v>-1</v>
       </c>
       <c r="D321">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7010,7 +6974,7 @@
         <v>-1</v>
       </c>
       <c r="D322">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="E322">
         <v>2</v>
@@ -7027,10 +6991,10 @@
         <v>-1</v>
       </c>
       <c r="D323">
-        <v>3</v>
+        <v>3.93</v>
       </c>
       <c r="E323">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7044,7 +7008,7 @@
         <v>-1</v>
       </c>
       <c r="D324">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="E324">
         <v>3</v>
@@ -7061,10 +7025,10 @@
         <v>-1</v>
       </c>
       <c r="D325">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="E325">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -7078,10 +7042,10 @@
         <v>-1</v>
       </c>
       <c r="D326">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="E326">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7095,10 +7059,10 @@
         <v>-1</v>
       </c>
       <c r="D327">
-        <v>1</v>
+        <v>1.32</v>
       </c>
       <c r="E327">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7112,10 +7076,10 @@
         <v>-1</v>
       </c>
       <c r="D328">
-        <v>3</v>
+        <v>3.79</v>
       </c>
       <c r="E328">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7129,10 +7093,10 @@
         <v>-1</v>
       </c>
       <c r="D329">
-        <v>2</v>
+        <v>0.82</v>
       </c>
       <c r="E329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7146,7 +7110,7 @@
         <v>-1</v>
       </c>
       <c r="D330">
-        <v>-2147483648</v>
+        <v>0.71</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -7163,10 +7127,10 @@
         <v>-1</v>
       </c>
       <c r="D331">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="E331">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7180,7 +7144,7 @@
         <v>-1</v>
       </c>
       <c r="D332">
-        <v>2</v>
+        <v>2.68</v>
       </c>
       <c r="E332">
         <v>2</v>
@@ -7197,7 +7161,7 @@
         <v>-1</v>
       </c>
       <c r="D333">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -7214,10 +7178,10 @@
         <v>-1</v>
       </c>
       <c r="D334">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="E334">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7231,10 +7195,10 @@
         <v>-1</v>
       </c>
       <c r="D335">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="E335">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7248,7 +7212,7 @@
         <v>-1</v>
       </c>
       <c r="D336">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -7265,7 +7229,7 @@
         <v>-1</v>
       </c>
       <c r="D337">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -7282,10 +7246,10 @@
         <v>-1</v>
       </c>
       <c r="D338">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="E338">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7299,10 +7263,10 @@
         <v>-1</v>
       </c>
       <c r="D339">
-        <v>2</v>
+        <v>2.21</v>
       </c>
       <c r="E339">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7316,7 +7280,7 @@
         <v>-1</v>
       </c>
       <c r="D340">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="E340">
         <v>4</v>
@@ -7333,10 +7297,10 @@
         <v>-1</v>
       </c>
       <c r="D341">
-        <v>2</v>
+        <v>2.94</v>
       </c>
       <c r="E341">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7350,10 +7314,10 @@
         <v>-1</v>
       </c>
       <c r="D342">
-        <v>3</v>
+        <v>3.59</v>
       </c>
       <c r="E342">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7367,10 +7331,10 @@
         <v>-1</v>
       </c>
       <c r="D343">
-        <v>2</v>
+        <v>3.07</v>
       </c>
       <c r="E343">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7384,7 +7348,7 @@
         <v>-1</v>
       </c>
       <c r="D344">
-        <v>3</v>
+        <v>3.87</v>
       </c>
       <c r="E344">
         <v>2</v>
@@ -7401,10 +7365,10 @@
         <v>-1</v>
       </c>
       <c r="D345">
-        <v>1</v>
+        <v>1.88</v>
       </c>
       <c r="E345">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7418,7 +7382,7 @@
         <v>-1</v>
       </c>
       <c r="D346">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -7435,10 +7399,10 @@
         <v>-1</v>
       </c>
       <c r="D347">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7452,10 +7416,10 @@
         <v>-1</v>
       </c>
       <c r="D348">
-        <v>3</v>
+        <v>3.89</v>
       </c>
       <c r="E348">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7469,7 +7433,7 @@
         <v>-1</v>
       </c>
       <c r="D349">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="E349">
         <v>3</v>
@@ -7486,7 +7450,7 @@
         <v>-1</v>
       </c>
       <c r="D350">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="E350">
         <v>4</v>
@@ -7503,7 +7467,7 @@
         <v>-1</v>
       </c>
       <c r="D351">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="E351">
         <v>2</v>
@@ -7520,7 +7484,7 @@
         <v>-1</v>
       </c>
       <c r="D352">
-        <v>2</v>
+        <v>2.76</v>
       </c>
       <c r="E352">
         <v>3</v>
@@ -7537,10 +7501,10 @@
         <v>-1</v>
       </c>
       <c r="D353">
-        <v>3</v>
+        <v>3.78</v>
       </c>
       <c r="E353">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7554,10 +7518,10 @@
         <v>-1</v>
       </c>
       <c r="D354">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E354">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7571,10 +7535,10 @@
         <v>-1</v>
       </c>
       <c r="D355">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E355">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7588,7 +7552,7 @@
         <v>-1</v>
       </c>
       <c r="D356">
-        <v>3</v>
+        <v>3.71</v>
       </c>
       <c r="E356">
         <v>3</v>
@@ -7601,13 +7565,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U23"/>
+  <dimension ref="B1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="2:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7667,1436 +7631,6 @@
       </c>
       <c r="U1" s="1" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>2.3</v>
-      </c>
-      <c r="G2">
-        <v>1.8</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>381</v>
-      </c>
-      <c r="M2" t="s">
-        <v>382</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>60</v>
-      </c>
-      <c r="R2">
-        <v>6</v>
-      </c>
-      <c r="S2" t="s">
-        <v>384</v>
-      </c>
-      <c r="T2">
-        <v>19</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1.4</v>
-      </c>
-      <c r="G3">
-        <v>2.1</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>15</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>381</v>
-      </c>
-      <c r="M3" t="s">
-        <v>382</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>60</v>
-      </c>
-      <c r="R3">
-        <v>9</v>
-      </c>
-      <c r="S3" t="s">
-        <v>384</v>
-      </c>
-      <c r="T3">
-        <v>19</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>1.8</v>
-      </c>
-      <c r="G4">
-        <v>1.8</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>381</v>
-      </c>
-      <c r="M4" t="s">
-        <v>382</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>60</v>
-      </c>
-      <c r="R4">
-        <v>3</v>
-      </c>
-      <c r="S4" t="s">
-        <v>384</v>
-      </c>
-      <c r="T4">
-        <v>19</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="1">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>1.7</v>
-      </c>
-      <c r="G5">
-        <v>1.9</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>381</v>
-      </c>
-      <c r="M5" t="s">
-        <v>382</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-      <c r="Q5">
-        <v>60</v>
-      </c>
-      <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="S5" t="s">
-        <v>384</v>
-      </c>
-      <c r="T5">
-        <v>19</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="1">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>378</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>1.8</v>
-      </c>
-      <c r="G6">
-        <v>1.8</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>381</v>
-      </c>
-      <c r="M6" t="s">
-        <v>382</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>60</v>
-      </c>
-      <c r="R6">
-        <v>6</v>
-      </c>
-      <c r="S6" t="s">
-        <v>385</v>
-      </c>
-      <c r="T6">
-        <v>19</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="1">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>1.8</v>
-      </c>
-      <c r="G7">
-        <v>1.8</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>8</v>
-      </c>
-      <c r="J7">
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>381</v>
-      </c>
-      <c r="M7" t="s">
-        <v>382</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7">
-        <v>60</v>
-      </c>
-      <c r="R7">
-        <v>5</v>
-      </c>
-      <c r="S7" t="s">
-        <v>384</v>
-      </c>
-      <c r="T7">
-        <v>19</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="1">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>378</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8" t="s">
-        <v>381</v>
-      </c>
-      <c r="M8" t="s">
-        <v>382</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="Q8">
-        <v>60</v>
-      </c>
-      <c r="R8">
-        <v>6</v>
-      </c>
-      <c r="S8" t="s">
-        <v>384</v>
-      </c>
-      <c r="T8">
-        <v>19</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="1">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>2.1</v>
-      </c>
-      <c r="G9">
-        <v>1.8</v>
-      </c>
-      <c r="H9">
-        <v>9</v>
-      </c>
-      <c r="I9">
-        <v>9</v>
-      </c>
-      <c r="J9">
-        <v>9</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9" t="s">
-        <v>381</v>
-      </c>
-      <c r="M9" t="s">
-        <v>382</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <v>60</v>
-      </c>
-      <c r="R9">
-        <v>6</v>
-      </c>
-      <c r="S9" t="s">
-        <v>384</v>
-      </c>
-      <c r="T9">
-        <v>19</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="1">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>377</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1.7</v>
-      </c>
-      <c r="G10">
-        <v>1.7</v>
-      </c>
-      <c r="H10">
-        <v>13</v>
-      </c>
-      <c r="I10">
-        <v>9</v>
-      </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10" t="s">
-        <v>381</v>
-      </c>
-      <c r="M10" t="s">
-        <v>382</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <v>60</v>
-      </c>
-      <c r="R10">
-        <v>9</v>
-      </c>
-      <c r="S10" t="s">
-        <v>384</v>
-      </c>
-      <c r="T10">
-        <v>19</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="1">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1.7</v>
-      </c>
-      <c r="G11">
-        <v>1.7</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="I11">
-        <v>12</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>381</v>
-      </c>
-      <c r="M11" t="s">
-        <v>382</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>2</v>
-      </c>
-      <c r="Q11">
-        <v>60</v>
-      </c>
-      <c r="R11">
-        <v>6</v>
-      </c>
-      <c r="S11" t="s">
-        <v>384</v>
-      </c>
-      <c r="T11">
-        <v>19</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="1">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1.7</v>
-      </c>
-      <c r="G12">
-        <v>1.7</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="I12">
-        <v>8</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>381</v>
-      </c>
-      <c r="M12" t="s">
-        <v>382</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>2</v>
-      </c>
-      <c r="Q12">
-        <v>60</v>
-      </c>
-      <c r="R12">
-        <v>3</v>
-      </c>
-      <c r="S12" t="s">
-        <v>384</v>
-      </c>
-      <c r="T12">
-        <v>19</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="1">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1.7</v>
-      </c>
-      <c r="G13">
-        <v>1.7</v>
-      </c>
-      <c r="H13">
-        <v>7</v>
-      </c>
-      <c r="I13">
-        <v>12</v>
-      </c>
-      <c r="J13">
-        <v>12</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>381</v>
-      </c>
-      <c r="M13" t="s">
-        <v>382</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13">
-        <v>60</v>
-      </c>
-      <c r="R13">
-        <v>3</v>
-      </c>
-      <c r="S13" t="s">
-        <v>384</v>
-      </c>
-      <c r="T13">
-        <v>19</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="1">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>377</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1.8</v>
-      </c>
-      <c r="G14">
-        <v>1.8</v>
-      </c>
-      <c r="H14">
-        <v>8</v>
-      </c>
-      <c r="I14">
-        <v>8</v>
-      </c>
-      <c r="J14">
-        <v>8</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>381</v>
-      </c>
-      <c r="M14" t="s">
-        <v>382</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
-      <c r="Q14">
-        <v>60</v>
-      </c>
-      <c r="R14">
-        <v>6</v>
-      </c>
-      <c r="S14" t="s">
-        <v>384</v>
-      </c>
-      <c r="T14">
-        <v>19</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="1">
-        <v>95</v>
-      </c>
-      <c r="B15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" t="s">
-        <v>378</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1.8</v>
-      </c>
-      <c r="G15">
-        <v>1.8</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15">
-        <v>8</v>
-      </c>
-      <c r="J15">
-        <v>8</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
-        <v>381</v>
-      </c>
-      <c r="M15" t="s">
-        <v>382</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>2</v>
-      </c>
-      <c r="Q15">
-        <v>60</v>
-      </c>
-      <c r="R15">
-        <v>3</v>
-      </c>
-      <c r="S15" t="s">
-        <v>386</v>
-      </c>
-      <c r="T15">
-        <v>19</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="1">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" t="s">
-        <v>378</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1.8</v>
-      </c>
-      <c r="G16">
-        <v>1.8</v>
-      </c>
-      <c r="H16">
-        <v>7</v>
-      </c>
-      <c r="I16">
-        <v>8</v>
-      </c>
-      <c r="J16">
-        <v>8</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>381</v>
-      </c>
-      <c r="M16" t="s">
-        <v>382</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <v>60</v>
-      </c>
-      <c r="R16">
-        <v>10</v>
-      </c>
-      <c r="S16" t="s">
-        <v>386</v>
-      </c>
-      <c r="T16">
-        <v>19</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="1">
-        <v>105</v>
-      </c>
-      <c r="B17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" t="s">
-        <v>379</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>2.1</v>
-      </c>
-      <c r="G17">
-        <v>2.1</v>
-      </c>
-      <c r="H17">
-        <v>9</v>
-      </c>
-      <c r="I17">
-        <v>9</v>
-      </c>
-      <c r="J17">
-        <v>9</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>381</v>
-      </c>
-      <c r="M17" t="s">
-        <v>382</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>2</v>
-      </c>
-      <c r="Q17">
-        <v>60</v>
-      </c>
-      <c r="R17">
-        <v>6</v>
-      </c>
-      <c r="S17" t="s">
-        <v>384</v>
-      </c>
-      <c r="T17">
-        <v>19</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="1">
-        <v>122</v>
-      </c>
-      <c r="B18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" t="s">
-        <v>378</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>1.9</v>
-      </c>
-      <c r="G18">
-        <v>2.2</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18">
-        <v>6</v>
-      </c>
-      <c r="J18">
-        <v>6</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>381</v>
-      </c>
-      <c r="M18" t="s">
-        <v>382</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>2</v>
-      </c>
-      <c r="Q18">
-        <v>60</v>
-      </c>
-      <c r="R18">
-        <v>10</v>
-      </c>
-      <c r="S18" t="s">
-        <v>384</v>
-      </c>
-      <c r="T18">
-        <v>19</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="1">
-        <v>196</v>
-      </c>
-      <c r="B19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" t="s">
-        <v>377</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>1.7</v>
-      </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="I19">
-        <v>9</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>381</v>
-      </c>
-      <c r="M19" t="s">
-        <v>382</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>2</v>
-      </c>
-      <c r="Q19">
-        <v>60</v>
-      </c>
-      <c r="R19">
-        <v>3</v>
-      </c>
-      <c r="S19" t="s">
-        <v>384</v>
-      </c>
-      <c r="T19">
-        <v>19</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="1">
-        <v>229</v>
-      </c>
-      <c r="B20" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" t="s">
-        <v>377</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>2.4</v>
-      </c>
-      <c r="G20">
-        <v>1.8</v>
-      </c>
-      <c r="H20">
-        <v>8</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>8</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
-        <v>381</v>
-      </c>
-      <c r="M20" t="s">
-        <v>382</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <v>60</v>
-      </c>
-      <c r="R20">
-        <v>6</v>
-      </c>
-      <c r="S20" t="s">
-        <v>384</v>
-      </c>
-      <c r="T20">
-        <v>19</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="1">
-        <v>305</v>
-      </c>
-      <c r="B21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C21" t="s">
-        <v>380</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <v>1.8</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>8</v>
-      </c>
-      <c r="I21">
-        <v>14</v>
-      </c>
-      <c r="J21">
-        <v>6</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>381</v>
-      </c>
-      <c r="M21" t="s">
-        <v>382</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>2</v>
-      </c>
-      <c r="Q21">
-        <v>60</v>
-      </c>
-      <c r="R21">
-        <v>5</v>
-      </c>
-      <c r="S21" t="s">
-        <v>387</v>
-      </c>
-      <c r="T21">
-        <v>19</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="1">
-        <v>310</v>
-      </c>
-      <c r="B22" t="s">
-        <v>313</v>
-      </c>
-      <c r="C22" t="s">
-        <v>379</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>2.5</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>5</v>
-      </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22" t="s">
-        <v>381</v>
-      </c>
-      <c r="M22" t="s">
-        <v>382</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>3</v>
-      </c>
-      <c r="Q22">
-        <v>60</v>
-      </c>
-      <c r="R22">
-        <v>12</v>
-      </c>
-      <c r="S22" t="s">
-        <v>388</v>
-      </c>
-      <c r="T22">
-        <v>19</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="1">
-        <v>328</v>
-      </c>
-      <c r="B23" t="s">
-        <v>331</v>
-      </c>
-      <c r="C23" t="s">
-        <v>377</v>
-      </c>
-      <c r="D23">
-        <v>8</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>2.6</v>
-      </c>
-      <c r="G23">
-        <v>0.6</v>
-      </c>
-      <c r="H23">
-        <v>7.2</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>8.5</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>381</v>
-      </c>
-      <c r="M23" t="s">
-        <v>383</v>
-      </c>
-      <c r="N23">
-        <v>7</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <v>2</v>
-      </c>
-      <c r="Q23">
-        <v>50</v>
-      </c>
-      <c r="R23">
-        <v>24</v>
-      </c>
-      <c r="S23" t="s">
-        <v>384</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>0.4883974918974737</v>
       </c>
     </row>
   </sheetData>

--- a/grades_comp.xlsx
+++ b/grades_comp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="377">
   <si>
     <t>CharacterDesignName</t>
   </si>
@@ -1503,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E356"/>
+  <dimension ref="A1:E355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-0.2</v>
+        <v>-0.24</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-0.16</v>
+        <v>-0.19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>-0.19</v>
+        <v>-0.21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1636,10 +1636,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1.26</v>
+        <v>1.03</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-0.97</v>
+        <v>-0.96</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="D11">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1704,10 +1704,10 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1721,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>3.32</v>
+        <v>3.26</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1738,10 +1738,10 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1755,10 +1755,10 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1772,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1789,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.8100000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1809,7 +1809,7 @@
         <v>1.21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1823,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>2.81</v>
+        <v>2.86</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1840,7 +1840,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1874,10 +1874,10 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>3.01</v>
+        <v>2.94</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1891,7 +1891,7 @@
         <v>-1</v>
       </c>
       <c r="D23">
-        <v>0.05</v>
+        <v>0.42</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>-1</v>
       </c>
       <c r="D24">
-        <v>-0.13</v>
+        <v>0.28</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>-1</v>
       </c>
       <c r="D25">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1933,16 +1933,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D26">
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1950,16 +1950,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>-1</v>
       </c>
       <c r="D27">
-        <v>-0.12</v>
+        <v>0.19</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1967,33 +1967,33 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>-0.17</v>
+        <v>2.51</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>2.25</v>
+        <v>1.32</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2001,67 +2001,67 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1.35</v>
+        <v>0.57</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>0.18</v>
+        <v>0.41</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2069,33 +2069,33 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0.49</v>
+        <v>0.74</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2103,16 +2103,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.47</v>
+        <v>0.98</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2120,67 +2120,67 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>0.82</v>
+        <v>2.01</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>2.28</v>
+        <v>3.15</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40">
-        <v>2.93</v>
+        <v>2.61</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -2188,101 +2188,101 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>2.66</v>
+        <v>0.9</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>0.9399999999999999</v>
+        <v>3.31</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>3.29</v>
+        <v>1.5</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1.49</v>
+        <v>0.14</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>0.03</v>
+        <v>1.8</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46">
-        <v>1.64</v>
+        <v>1.02</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2290,101 +2290,101 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>1.06</v>
+        <v>2.88</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>2.66</v>
+        <v>0.91</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>0.98</v>
+        <v>2.2</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1.68</v>
+        <v>0.3</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2392,50 +2392,50 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>0.72</v>
+        <v>1.66</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D54">
-        <v>1.64</v>
+        <v>-0.43</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55">
         <v>-1</v>
       </c>
       <c r="D55">
-        <v>-0.74</v>
+        <v>-0.45</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2443,16 +2443,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56">
         <v>-1</v>
       </c>
       <c r="D56">
-        <v>-0.77</v>
+        <v>-0.44</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2460,16 +2460,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57">
         <v>-1</v>
       </c>
       <c r="D57">
-        <v>-0.75</v>
+        <v>-0.43</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2477,50 +2477,50 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>-0.74</v>
+        <v>2.72</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D59">
-        <v>2.55</v>
+        <v>-0.37</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>-1</v>
       </c>
       <c r="D60">
-        <v>-0.72</v>
+        <v>-0.39</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2528,16 +2528,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>-1</v>
       </c>
       <c r="D61">
-        <v>-0.74</v>
+        <v>-0.49</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2545,50 +2545,50 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>-0.8100000000000001</v>
+        <v>1.61</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D63">
-        <v>1.5</v>
+        <v>-0.63</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>-1</v>
       </c>
       <c r="D64">
-        <v>-0.73</v>
+        <v>0.41</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2596,16 +2596,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65">
         <v>-1</v>
       </c>
       <c r="D65">
-        <v>0.27</v>
+        <v>0.86</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2613,16 +2613,16 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66">
         <v>-1</v>
       </c>
       <c r="D66">
-        <v>0.77</v>
+        <v>-0.02</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2630,33 +2630,33 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>-0.08</v>
+        <v>2.18</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68">
-        <v>2.17</v>
+        <v>2.79</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2664,16 +2664,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>2.68</v>
+        <v>1.78</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2681,16 +2681,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D70">
-        <v>1.77</v>
+        <v>-0.13</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2698,16 +2698,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71">
         <v>-1</v>
       </c>
       <c r="D71">
-        <v>-0.18</v>
+        <v>0.36</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2715,16 +2715,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72">
         <v>-1</v>
       </c>
       <c r="D72">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2732,16 +2732,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73">
         <v>-1</v>
       </c>
       <c r="D73">
-        <v>0.03</v>
+        <v>-0</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2749,33 +2749,33 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D74">
-        <v>-0.06</v>
+        <v>3.16</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>1.78</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -2783,84 +2783,84 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>1.84</v>
+        <v>2.7</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>2.71</v>
+        <v>-0.03</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>0.02</v>
+        <v>1.57</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>1.53</v>
+        <v>1.99</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -2868,16 +2868,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2885,16 +2885,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>1.06</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2902,33 +2902,33 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>0.6899999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -2936,10 +2936,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -2953,67 +2953,67 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>0.64</v>
+        <v>1.02</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>1.12</v>
+        <v>1.86</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>1.88</v>
+        <v>2.75</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>2.64</v>
+        <v>4.07</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -3021,33 +3021,33 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>4.13</v>
+        <v>3.01</v>
       </c>
       <c r="E90">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
       <c r="D91">
-        <v>3.04</v>
+        <v>2.96</v>
       </c>
       <c r="E91">
         <v>3</v>
@@ -3055,16 +3055,16 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
       <c r="D92">
-        <v>2.77</v>
+        <v>3.52</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -3072,16 +3072,16 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>3.26</v>
+        <v>3.93</v>
       </c>
       <c r="E93">
         <v>3</v>
@@ -3089,67 +3089,67 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C94">
         <v>4</v>
       </c>
       <c r="D94">
-        <v>3.98</v>
+        <v>3.32</v>
       </c>
       <c r="E94">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C95">
         <v>4</v>
       </c>
       <c r="D95">
-        <v>3.26</v>
+        <v>3.97</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D96">
-        <v>3.65</v>
+        <v>0.03</v>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C97">
         <v>-1</v>
       </c>
       <c r="D97">
-        <v>-0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -3157,33 +3157,33 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>-0.05</v>
+        <v>0.98</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3191,305 +3191,305 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>0.74</v>
+        <v>1.96</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>1.99</v>
+        <v>0.95</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>1.06</v>
+        <v>0.08</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>0.47</v>
+        <v>1.29</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>1.19</v>
+        <v>0.06</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>0.34</v>
+        <v>1.96</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D106">
-        <v>1.78</v>
+        <v>0.51</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C107">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>0.54</v>
+        <v>1.22</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>1.49</v>
+        <v>2.35</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C111">
         <v>3</v>
       </c>
       <c r="D111">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="E111">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D112">
-        <v>2.06</v>
+        <v>3.59</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C113">
         <v>4</v>
       </c>
       <c r="D113">
-        <v>3.73</v>
+        <v>3.81</v>
       </c>
       <c r="E113">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C114">
         <v>4</v>
       </c>
       <c r="D114">
-        <v>3.98</v>
+        <v>3.55</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C115">
         <v>4</v>
       </c>
       <c r="D115">
-        <v>3.48</v>
+        <v>4.01</v>
       </c>
       <c r="E115">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>4.03</v>
+        <v>2.22</v>
       </c>
       <c r="E116">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>2.46</v>
+        <v>1</v>
       </c>
       <c r="E117">
         <v>2</v>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -3514,33 +3514,33 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>2.38</v>
+        <v>-0.35</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>-0.14</v>
+        <v>0.17</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -3548,152 +3548,152 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D121">
-        <v>0.34</v>
+        <v>1.58</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>1.76</v>
+        <v>0.63</v>
       </c>
       <c r="E122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D123">
-        <v>0.66</v>
+        <v>-0.13</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>-0.21</v>
+        <v>1.32</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D125">
-        <v>1.64</v>
+        <v>3.81</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D126">
-        <v>4.05</v>
+        <v>2.85</v>
       </c>
       <c r="E126">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D127">
-        <v>2.81</v>
+        <v>1.54</v>
       </c>
       <c r="E127">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D128">
-        <v>1.57</v>
+        <v>3.05</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>2.96</v>
+        <v>1.83</v>
       </c>
       <c r="E129">
         <v>2</v>
@@ -3701,101 +3701,101 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>1.97</v>
+        <v>0.63</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>0.55</v>
+        <v>1.53</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>1.44</v>
+        <v>2.67</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>2.52</v>
+        <v>0.84</v>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D134">
-        <v>0.98</v>
+        <v>2.11</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C135">
         <v>3</v>
       </c>
       <c r="D135">
-        <v>2.1</v>
+        <v>3.86</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -3803,84 +3803,84 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>3.72</v>
+        <v>0.41</v>
       </c>
       <c r="E136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>0.35</v>
+        <v>2.02</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>2.18</v>
+        <v>0.6</v>
       </c>
       <c r="E138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D139">
-        <v>0.51</v>
+        <v>3.71</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>3.59</v>
+        <v>2.12</v>
       </c>
       <c r="E140">
         <v>2</v>
@@ -3888,50 +3888,50 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>2.63</v>
+        <v>1.38</v>
       </c>
       <c r="E142">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -3939,16 +3939,16 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D144">
-        <v>1.6</v>
+        <v>3.55</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -3956,33 +3956,33 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>3.57</v>
+        <v>2.37</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
       <c r="D146">
-        <v>2.46</v>
+        <v>1.91</v>
       </c>
       <c r="E146">
         <v>2</v>
@@ -3990,16 +3990,16 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D147">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="E147">
         <v>2</v>
@@ -4007,33 +4007,33 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>3.7</v>
+        <v>1.36</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1.23</v>
+        <v>1.68</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -4041,50 +4041,50 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D150">
-        <v>1.74</v>
+        <v>2.99</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>3.07</v>
+        <v>2.06</v>
       </c>
       <c r="E151">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D152">
-        <v>2.1</v>
+        <v>2.59</v>
       </c>
       <c r="E152">
         <v>2</v>
@@ -4092,67 +4092,67 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C153">
         <v>3</v>
       </c>
       <c r="D153">
-        <v>2.64</v>
+        <v>3.39</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>3.27</v>
+        <v>0.44</v>
       </c>
       <c r="E154">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>0.72</v>
+        <v>2.24</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>2.43</v>
+        <v>0.78</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -4160,67 +4160,67 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D157">
-        <v>0.79</v>
+        <v>3.2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>3.14</v>
+        <v>2.75</v>
       </c>
       <c r="E158">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D159">
-        <v>2.57</v>
+        <v>2.88</v>
       </c>
       <c r="E159">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D160">
-        <v>2.68</v>
+        <v>4</v>
       </c>
       <c r="E160">
         <v>2</v>
@@ -4228,33 +4228,33 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D161">
-        <v>4.01</v>
+        <v>2.73</v>
       </c>
       <c r="E161">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -4262,16 +4262,16 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
       <c r="D163">
-        <v>1.11</v>
+        <v>2.51</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -4279,67 +4279,67 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D164">
-        <v>2.54</v>
+        <v>3.6</v>
       </c>
       <c r="E164">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C165">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>3.61</v>
+        <v>-0.11</v>
       </c>
       <c r="E165">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>-0.37</v>
+        <v>1.74</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D167">
-        <v>1.76</v>
+        <v>-0.16</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -4347,16 +4347,16 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C168">
         <v>0</v>
       </c>
       <c r="D168">
-        <v>-0.25</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -4364,16 +4364,16 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C169">
         <v>0</v>
       </c>
       <c r="D169">
-        <v>-0.15</v>
+        <v>0.01</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -4381,16 +4381,16 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C170">
         <v>0</v>
       </c>
       <c r="D170">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -4398,16 +4398,16 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
       <c r="D171">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -4415,16 +4415,16 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C172">
         <v>0</v>
       </c>
       <c r="D172">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -4432,16 +4432,16 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C173">
         <v>0</v>
       </c>
       <c r="D173">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -4449,16 +4449,16 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C174">
         <v>0</v>
       </c>
       <c r="D174">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -4466,16 +4466,16 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C175">
         <v>0</v>
       </c>
       <c r="D175">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -4483,16 +4483,16 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C176">
         <v>0</v>
       </c>
       <c r="D176">
-        <v>0.76</v>
+        <v>-0.09</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -4500,16 +4500,16 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C177">
         <v>0</v>
       </c>
       <c r="D177">
-        <v>-0.27</v>
+        <v>-0.16</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -4517,16 +4517,16 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C178">
         <v>0</v>
       </c>
       <c r="D178">
-        <v>-0.17</v>
+        <v>-0.06</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -4534,16 +4534,16 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C179">
         <v>0</v>
       </c>
       <c r="D179">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -4551,16 +4551,16 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C180">
         <v>0</v>
       </c>
       <c r="D180">
-        <v>-0</v>
+        <v>-0.11</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -4568,84 +4568,84 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>0.09</v>
+        <v>1.99</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D182">
-        <v>1.98</v>
+        <v>-0.11</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D183">
-        <v>-0.04</v>
+        <v>2.45</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>2.45</v>
+        <v>2.01</v>
       </c>
       <c r="E184">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <v>2.08</v>
+        <v>0.72</v>
       </c>
       <c r="E185">
         <v>2</v>
@@ -4653,33 +4653,33 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D186">
-        <v>0.76</v>
+        <v>2.84</v>
       </c>
       <c r="E186">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C187">
         <v>3</v>
       </c>
       <c r="D187">
-        <v>2.88</v>
+        <v>3.26</v>
       </c>
       <c r="E187">
         <v>3</v>
@@ -4687,84 +4687,84 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C188">
         <v>3</v>
       </c>
       <c r="D188">
-        <v>3.32</v>
+        <v>3.1</v>
       </c>
       <c r="E188">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C189">
         <v>3</v>
       </c>
       <c r="D189">
-        <v>2.97</v>
+        <v>2.79</v>
       </c>
       <c r="E189">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>2.89</v>
+        <v>2.21</v>
       </c>
       <c r="E190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C191">
         <v>2</v>
       </c>
       <c r="D191">
-        <v>2.38</v>
+        <v>1.82</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>1.57</v>
+        <v>0.92</v>
       </c>
       <c r="E192">
         <v>2</v>
@@ -4772,16 +4772,16 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>0.86</v>
+        <v>1.98</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -4789,118 +4789,118 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D194">
-        <v>1.91</v>
+        <v>3.67</v>
       </c>
       <c r="E194">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C195">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D195">
-        <v>3.65</v>
+        <v>0.18</v>
       </c>
       <c r="E195">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>0.18</v>
+        <v>1.1</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D197">
-        <v>1.01</v>
+        <v>-0.03</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C198">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>-0.07000000000000001</v>
+        <v>1.97</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D199">
-        <v>1.9</v>
+        <v>-0.38</v>
       </c>
       <c r="E199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C200">
         <v>0</v>
       </c>
       <c r="D200">
-        <v>-0.49</v>
+        <v>-0.29</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -4908,16 +4908,16 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D201">
-        <v>-0.39</v>
+        <v>2.96</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -4925,67 +4925,67 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C202">
         <v>3</v>
       </c>
       <c r="D202">
-        <v>3.12</v>
+        <v>1.96</v>
       </c>
       <c r="E202">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>2.24</v>
+        <v>1.67</v>
       </c>
       <c r="E203">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D204">
-        <v>1.64</v>
+        <v>1.99</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>2.31</v>
+        <v>1.6</v>
       </c>
       <c r="E205">
         <v>2</v>
@@ -4993,16 +4993,16 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C206">
         <v>2</v>
       </c>
       <c r="D206">
-        <v>1.74</v>
+        <v>2.01</v>
       </c>
       <c r="E206">
         <v>2</v>
@@ -5010,16 +5010,16 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C207">
         <v>2</v>
       </c>
       <c r="D207">
-        <v>2.05</v>
+        <v>2.52</v>
       </c>
       <c r="E207">
         <v>2</v>
@@ -5027,16 +5027,16 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C208">
         <v>2</v>
       </c>
       <c r="D208">
-        <v>2.51</v>
+        <v>1.58</v>
       </c>
       <c r="E208">
         <v>2</v>
@@ -5044,101 +5044,101 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D209">
-        <v>1.64</v>
+        <v>3.81</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C210">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>3.77</v>
+        <v>1.42</v>
       </c>
       <c r="E210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D211">
-        <v>1.4</v>
+        <v>2.85</v>
       </c>
       <c r="E211">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D212">
-        <v>2.96</v>
+        <v>-0.21</v>
       </c>
       <c r="E212">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D213">
-        <v>-0.29</v>
+        <v>3.08</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>2.88</v>
+        <v>1.25</v>
       </c>
       <c r="E214">
         <v>2</v>
@@ -5146,50 +5146,50 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D215">
-        <v>1.2</v>
+        <v>2.54</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>2.54</v>
+        <v>1.99</v>
       </c>
       <c r="E216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C217">
         <v>2</v>
       </c>
       <c r="D217">
-        <v>2.14</v>
+        <v>2.53</v>
       </c>
       <c r="E217">
         <v>2</v>
@@ -5197,16 +5197,16 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C218">
         <v>2</v>
       </c>
       <c r="D218">
-        <v>2.52</v>
+        <v>1.9</v>
       </c>
       <c r="E218">
         <v>2</v>
@@ -5214,16 +5214,16 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>1.76</v>
+        <v>0.87</v>
       </c>
       <c r="E219">
         <v>2</v>
@@ -5231,118 +5231,118 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>0.84</v>
+        <v>1.21</v>
       </c>
       <c r="E220">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="1">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C221">
         <v>2</v>
       </c>
       <c r="D221">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="E221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D222">
-        <v>1.06</v>
+        <v>2.92</v>
       </c>
       <c r="E222">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C223">
         <v>3</v>
       </c>
       <c r="D223">
-        <v>3.03</v>
+        <v>2.92</v>
       </c>
       <c r="E223">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>3.03</v>
+        <v>1.07</v>
       </c>
       <c r="E224">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="1">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D225">
-        <v>1.14</v>
+        <v>0.12</v>
       </c>
       <c r="E225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="1">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C226">
         <v>0</v>
       </c>
       <c r="D226">
-        <v>0.46</v>
+        <v>-0.31</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -5350,33 +5350,33 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>-0.24</v>
+        <v>1.54</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D228">
-        <v>1.65</v>
+        <v>-0.3</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -5384,33 +5384,33 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="1">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D229">
-        <v>-0.4</v>
+        <v>0.99</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D230">
-        <v>1.08</v>
+        <v>-0.01</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -5418,67 +5418,67 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C231">
         <v>-1</v>
       </c>
       <c r="D231">
-        <v>-0.05</v>
+        <v>1.06</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C232">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D232">
-        <v>1.11</v>
+        <v>3.64</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C233">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>3.53</v>
+        <v>2.3</v>
       </c>
       <c r="E233">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C234">
         <v>2</v>
       </c>
       <c r="D234">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="E234">
         <v>2</v>
@@ -5486,33 +5486,33 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D235">
-        <v>2.29</v>
+        <v>-0.03</v>
       </c>
       <c r="E235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C236">
         <v>0</v>
       </c>
       <c r="D236">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -5520,16 +5520,16 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C237">
         <v>0</v>
       </c>
       <c r="D237">
-        <v>-0.07000000000000001</v>
+        <v>-0.02</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -5537,16 +5537,16 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="1">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C238">
         <v>0</v>
       </c>
       <c r="D238">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -5554,16 +5554,16 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C239">
         <v>0</v>
       </c>
       <c r="D239">
-        <v>0.12</v>
+        <v>-0.06</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -5571,16 +5571,16 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C240">
         <v>0</v>
       </c>
       <c r="D240">
-        <v>-0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -5588,16 +5588,16 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C241">
         <v>0</v>
       </c>
       <c r="D241">
-        <v>0.02</v>
+        <v>-0.13</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -5605,16 +5605,16 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C242">
         <v>0</v>
       </c>
       <c r="D242">
-        <v>-0.2</v>
+        <v>-0.26</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -5622,16 +5622,16 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C243">
         <v>0</v>
       </c>
       <c r="D243">
-        <v>-0.29</v>
+        <v>0.01</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -5639,16 +5639,16 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C244">
         <v>0</v>
       </c>
       <c r="D244">
-        <v>-0</v>
+        <v>-0.16</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -5656,16 +5656,16 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="1">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C245">
         <v>0</v>
       </c>
       <c r="D245">
-        <v>-0.23</v>
+        <v>-0.22</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -5673,16 +5673,16 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="1">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C246">
         <v>0</v>
       </c>
       <c r="D246">
-        <v>-0.28</v>
+        <v>-0.18</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -5690,16 +5690,16 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C247">
         <v>0</v>
       </c>
       <c r="D247">
-        <v>-0.19</v>
+        <v>0.16</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -5707,16 +5707,16 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="1">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C248">
         <v>0</v>
       </c>
       <c r="D248">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -5724,16 +5724,16 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C249">
         <v>0</v>
       </c>
       <c r="D249">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -5741,16 +5741,16 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C250">
         <v>0</v>
       </c>
       <c r="D250">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -5758,16 +5758,16 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="1">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C251">
         <v>0</v>
       </c>
       <c r="D251">
-        <v>0.31</v>
+        <v>0.08</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -5775,16 +5775,16 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C252">
         <v>0</v>
       </c>
       <c r="D252">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -5792,50 +5792,50 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="1">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C253">
         <v>0</v>
       </c>
       <c r="D253">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="1">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>0.27</v>
+        <v>1.39</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="1">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -5843,16 +5843,16 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="1">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -5860,16 +5860,16 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="1">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D257">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -5877,16 +5877,16 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="1">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -5894,84 +5894,84 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="1">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D259">
-        <v>1.77</v>
+        <v>0.33</v>
       </c>
       <c r="E259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="1">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D260">
-        <v>0.19</v>
+        <v>2.46</v>
       </c>
       <c r="E260">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="1">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C261">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D261">
-        <v>2.4</v>
+        <v>2.59</v>
       </c>
       <c r="E261">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="1">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C262">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D262">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="E262">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="1">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>2.62</v>
+        <v>1.55</v>
       </c>
       <c r="E263">
         <v>2</v>
@@ -5979,16 +5979,16 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="1">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>1.61</v>
+        <v>1.21</v>
       </c>
       <c r="E264">
         <v>1</v>
@@ -5996,16 +5996,16 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="1">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265">
-        <v>1.33</v>
+        <v>1.96</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -6013,50 +6013,50 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="1">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C266">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D266">
-        <v>1.91</v>
+        <v>4.53</v>
       </c>
       <c r="E266">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C267">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D267">
-        <v>4.53</v>
+        <v>2.34</v>
       </c>
       <c r="E267">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="1">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C268">
         <v>2</v>
       </c>
       <c r="D268">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="E268">
         <v>2</v>
@@ -6064,16 +6064,16 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C269">
         <v>2</v>
       </c>
       <c r="D269">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="E269">
         <v>2</v>
@@ -6081,50 +6081,50 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="1">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D270">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="E270">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="1">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D271">
-        <v>1.31</v>
+        <v>2.55</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C272">
         <v>3</v>
       </c>
       <c r="D272">
-        <v>2.41</v>
+        <v>2.82</v>
       </c>
       <c r="E272">
         <v>3</v>
@@ -6132,84 +6132,84 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="1">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C273">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D273">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="E273">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="1">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C274">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D274">
-        <v>1.66</v>
+        <v>2.82</v>
       </c>
       <c r="E274">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="1">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C275">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D275">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="E275">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="1">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D276">
-        <v>2.69</v>
+        <v>1.32</v>
       </c>
       <c r="E276">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="1">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C277">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D277">
-        <v>1.12</v>
+        <v>0.15</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -6217,16 +6217,16 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="1">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C278">
         <v>-1</v>
       </c>
       <c r="D278">
-        <v>-0.4</v>
+        <v>0.02</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -6234,16 +6234,16 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="1">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C279">
         <v>-1</v>
       </c>
       <c r="D279">
-        <v>-0.49</v>
+        <v>0.3</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -6251,16 +6251,16 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="1">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C280">
         <v>-1</v>
       </c>
       <c r="D280">
-        <v>-0.21</v>
+        <v>0.06</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -6268,16 +6268,16 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="1">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C281">
         <v>-1</v>
       </c>
       <c r="D281">
-        <v>-0.48</v>
+        <v>0.11</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -6285,16 +6285,16 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="1">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C282">
         <v>-1</v>
       </c>
       <c r="D282">
-        <v>-0.39</v>
+        <v>0.12</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -6302,16 +6302,16 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="1">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C283">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D283">
-        <v>-0.43</v>
+        <v>0.62</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -6319,16 +6319,16 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="1">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D284">
-        <v>1.01</v>
+        <v>0.29</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -6336,16 +6336,16 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="1">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C285">
         <v>-1</v>
       </c>
       <c r="D285">
-        <v>-0.09</v>
+        <v>0.22</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -6353,16 +6353,16 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="1">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C286">
         <v>-1</v>
       </c>
       <c r="D286">
-        <v>-0.12</v>
+        <v>0.22</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -6370,16 +6370,16 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="1">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C287">
         <v>-1</v>
       </c>
       <c r="D287">
-        <v>-0.12</v>
+        <v>0.22</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -6387,50 +6387,50 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="1">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C288">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D288">
-        <v>-0.12</v>
+        <v>2.47</v>
       </c>
       <c r="E288">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="1">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C289">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D289">
-        <v>2.47</v>
+        <v>0.15</v>
       </c>
       <c r="E289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="1">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C290">
         <v>-1</v>
       </c>
       <c r="D290">
-        <v>-0.4</v>
+        <v>0.02</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -6438,16 +6438,16 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="1">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C291">
         <v>-1</v>
       </c>
       <c r="D291">
-        <v>-0.49</v>
+        <v>0.3</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -6455,16 +6455,16 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="1">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C292">
         <v>-1</v>
       </c>
       <c r="D292">
-        <v>-0.21</v>
+        <v>0.06</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -6472,16 +6472,16 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="1">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C293">
         <v>-1</v>
       </c>
       <c r="D293">
-        <v>-0.48</v>
+        <v>0.12</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -6489,84 +6489,84 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="1">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C294">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D294">
-        <v>-0.43</v>
+        <v>2.63</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="1">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C295">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D295">
-        <v>2.55</v>
+        <v>0.11</v>
       </c>
       <c r="E295">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="1">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C296">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D296">
-        <v>-0.39</v>
+        <v>2.63</v>
       </c>
       <c r="E296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="1">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C297">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D297">
-        <v>2.55</v>
+        <v>1.34</v>
       </c>
       <c r="E297">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="1">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C298">
         <v>2</v>
       </c>
       <c r="D298">
-        <v>1.41</v>
+        <v>2.31</v>
       </c>
       <c r="E298">
         <v>2</v>
@@ -6574,33 +6574,33 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="1">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C299">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D299">
-        <v>2.41</v>
+        <v>0.02</v>
       </c>
       <c r="E299">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="1">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C300">
         <v>-1</v>
       </c>
       <c r="D300">
-        <v>-0.49</v>
+        <v>0.1</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -6608,16 +6608,16 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="1">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C301">
         <v>-1</v>
       </c>
       <c r="D301">
-        <v>-0.46</v>
+        <v>0.3</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -6625,16 +6625,16 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="1">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C302">
         <v>-1</v>
       </c>
       <c r="D302">
-        <v>-0.21</v>
+        <v>0.06</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -6642,16 +6642,16 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="1">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C303">
         <v>-1</v>
       </c>
       <c r="D303">
-        <v>-0.48</v>
+        <v>0.12</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -6659,16 +6659,16 @@
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="1">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C304">
         <v>-1</v>
       </c>
       <c r="D304">
-        <v>-0.43</v>
+        <v>0.11</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -6676,101 +6676,101 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="1">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C305">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D305">
-        <v>-0.39</v>
+        <v>1.96</v>
       </c>
       <c r="E305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="1">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C306">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D306">
-        <v>1.94</v>
+        <v>0.46</v>
       </c>
       <c r="E306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="1">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C307">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D307">
-        <v>0.26</v>
+        <v>1.01</v>
       </c>
       <c r="E307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="1">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C308">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D308">
-        <v>1.15</v>
+        <v>0.23</v>
       </c>
       <c r="E308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="1">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C309">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D309">
-        <v>-0.41</v>
+        <v>1.37</v>
       </c>
       <c r="E309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="1">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C310">
         <v>1</v>
       </c>
       <c r="D310">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="E310">
         <v>1</v>
@@ -6778,101 +6778,101 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="1">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D311">
-        <v>1.27</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="E311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="1">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C312">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D312">
-        <v>-0.6</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="1">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C313">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D313">
-        <v>0.77</v>
+        <v>2.52</v>
       </c>
       <c r="E313">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="1">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C314">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D314">
-        <v>2.32</v>
+        <v>1.97</v>
       </c>
       <c r="E314">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="1">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C315">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D315">
-        <v>1.85</v>
+        <v>2.65</v>
       </c>
       <c r="E315">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="1">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C316">
         <v>-1</v>
       </c>
       <c r="D316">
-        <v>2.71</v>
+        <v>2.53</v>
       </c>
       <c r="E316">
         <v>2</v>
@@ -6880,169 +6880,169 @@
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="1">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C317">
         <v>-1</v>
       </c>
       <c r="D317">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
       <c r="E317">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="1">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C318">
         <v>-1</v>
       </c>
       <c r="D318">
-        <v>2.22</v>
+        <v>2.91</v>
       </c>
       <c r="E318">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="1">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C319">
         <v>-1</v>
       </c>
       <c r="D319">
-        <v>2.92</v>
+        <v>2.21</v>
       </c>
       <c r="E319">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="1">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C320">
         <v>-1</v>
       </c>
       <c r="D320">
-        <v>2.46</v>
+        <v>0.7</v>
       </c>
       <c r="E320">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="1">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C321">
         <v>-1</v>
       </c>
       <c r="D321">
-        <v>0.6899999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="E321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="1">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C322">
         <v>-1</v>
       </c>
       <c r="D322">
-        <v>3.7</v>
+        <v>3.91</v>
       </c>
       <c r="E322">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="1">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C323">
         <v>-1</v>
       </c>
       <c r="D323">
-        <v>3.93</v>
+        <v>1.48</v>
       </c>
       <c r="E323">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="1">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C324">
         <v>-1</v>
       </c>
       <c r="D324">
-        <v>1.46</v>
+        <v>1.1</v>
       </c>
       <c r="E324">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="1">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C325">
         <v>-1</v>
       </c>
       <c r="D325">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="E325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="1">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C326">
         <v>-1</v>
       </c>
       <c r="D326">
-        <v>1.11</v>
+        <v>1.34</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -7050,50 +7050,50 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="1">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C327">
         <v>-1</v>
       </c>
       <c r="D327">
-        <v>1.32</v>
+        <v>3.8</v>
       </c>
       <c r="E327">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="1">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C328">
         <v>-1</v>
       </c>
       <c r="D328">
-        <v>3.79</v>
+        <v>1.24</v>
       </c>
       <c r="E328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="1">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C329">
         <v>-1</v>
       </c>
       <c r="D329">
-        <v>0.82</v>
+        <v>0.63</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -7101,67 +7101,67 @@
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="1">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C330">
         <v>-1</v>
       </c>
       <c r="D330">
-        <v>0.71</v>
+        <v>2.18</v>
       </c>
       <c r="E330">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="1">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C331">
         <v>-1</v>
       </c>
       <c r="D331">
-        <v>2.06</v>
+        <v>2.7</v>
       </c>
       <c r="E331">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="1">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C332">
         <v>-1</v>
       </c>
       <c r="D332">
-        <v>2.68</v>
+        <v>-0.15</v>
       </c>
       <c r="E332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="1">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C333">
         <v>-1</v>
       </c>
       <c r="D333">
-        <v>-0.19</v>
+        <v>3.02</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -7169,50 +7169,50 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="1">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C334">
         <v>-1</v>
       </c>
       <c r="D334">
-        <v>2.98</v>
+        <v>2.08</v>
       </c>
       <c r="E334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="1">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C335">
         <v>-1</v>
       </c>
       <c r="D335">
-        <v>2.24</v>
+        <v>1.4</v>
       </c>
       <c r="E335">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="1">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C336">
         <v>-1</v>
       </c>
       <c r="D336">
-        <v>1.46</v>
+        <v>2.19</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -7220,61 +7220,61 @@
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="1">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C337">
         <v>-1</v>
       </c>
       <c r="D337">
-        <v>2.03</v>
+        <v>2.33</v>
       </c>
       <c r="E337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="1">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C338">
         <v>-1</v>
       </c>
       <c r="D338">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="E338">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="1">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C339">
         <v>-1</v>
       </c>
       <c r="D339">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="E339">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="1">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C340">
         <v>-1</v>
@@ -7283,38 +7283,38 @@
         <v>2.26</v>
       </c>
       <c r="E340">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="1">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C341">
         <v>-1</v>
       </c>
       <c r="D341">
-        <v>2.94</v>
+        <v>3.75</v>
       </c>
       <c r="E341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="1">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C342">
         <v>-1</v>
       </c>
       <c r="D342">
-        <v>3.59</v>
+        <v>2.9</v>
       </c>
       <c r="E342">
         <v>1</v>
@@ -7322,169 +7322,169 @@
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="1">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C343">
         <v>-1</v>
       </c>
       <c r="D343">
-        <v>3.07</v>
+        <v>3.78</v>
       </c>
       <c r="E343">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="1">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C344">
         <v>-1</v>
       </c>
       <c r="D344">
-        <v>3.87</v>
+        <v>1.85</v>
       </c>
       <c r="E344">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="1">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C345">
         <v>-1</v>
       </c>
       <c r="D345">
-        <v>1.88</v>
+        <v>-0.3</v>
       </c>
       <c r="E345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="1">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C346">
         <v>-1</v>
       </c>
       <c r="D346">
-        <v>-0.25</v>
+        <v>2.17</v>
       </c>
       <c r="E346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="1">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C347">
         <v>-1</v>
       </c>
       <c r="D347">
-        <v>2.1</v>
+        <v>3.72</v>
       </c>
       <c r="E347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="1">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C348">
         <v>-1</v>
       </c>
       <c r="D348">
-        <v>3.89</v>
+        <v>4.11</v>
       </c>
       <c r="E348">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="1">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C349">
         <v>-1</v>
       </c>
       <c r="D349">
-        <v>4.45</v>
+        <v>4.17</v>
       </c>
       <c r="E349">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="1">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C350">
         <v>-1</v>
       </c>
       <c r="D350">
-        <v>4.25</v>
+        <v>3.1</v>
       </c>
       <c r="E350">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="1">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C351">
         <v>-1</v>
       </c>
       <c r="D351">
-        <v>3.17</v>
+        <v>2.62</v>
       </c>
       <c r="E351">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="1">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C352">
         <v>-1</v>
       </c>
       <c r="D352">
-        <v>2.76</v>
+        <v>3.67</v>
       </c>
       <c r="E352">
         <v>3</v>
@@ -7492,69 +7492,52 @@
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="1">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C353">
         <v>-1</v>
       </c>
       <c r="D353">
-        <v>3.78</v>
+        <v>2.39</v>
       </c>
       <c r="E353">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="1">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C354">
         <v>-1</v>
       </c>
       <c r="D354">
-        <v>2.5</v>
+        <v>3.34</v>
       </c>
       <c r="E354">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="1">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C355">
         <v>-1</v>
       </c>
       <c r="D355">
-        <v>3.2</v>
+        <v>3.67</v>
       </c>
       <c r="E355">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="A356" s="1">
-        <v>354</v>
-      </c>
-      <c r="B356" t="s">
-        <v>357</v>
-      </c>
-      <c r="C356">
-        <v>-1</v>
-      </c>
-      <c r="D356">
-        <v>3.71</v>
-      </c>
-      <c r="E356">
         <v>3</v>
       </c>
     </row>

--- a/grades_comp.xlsx
+++ b/grades_comp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="378">
   <si>
     <t>CharacterDesignName</t>
   </si>
@@ -1089,6 +1089,9 @@
   </si>
   <si>
     <t>Cupid Trooper</t>
+  </si>
+  <si>
+    <t>CharacterDesignId</t>
   </si>
   <si>
     <t>RaceType</t>
@@ -7548,18 +7551,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:U1"/>
+  <dimension ref="B1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:21">
+    <row r="1" spans="2:22">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>359</v>
@@ -7614,6 +7617,9 @@
       </c>
       <c r="U1" s="1" t="s">
         <v>376</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
